--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,22 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="UserPage" sheetId="5" r:id="rId2"/>
-    <sheet name="AddUser" sheetId="6" r:id="rId3"/>
-    <sheet name="ResetEmail" sheetId="4" r:id="rId4"/>
-    <sheet name="Homepage" sheetId="3" r:id="rId5"/>
-    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId6"/>
+    <sheet name="AddUserDetails" sheetId="7" r:id="rId1"/>
+    <sheet name="AddUserError" sheetId="11" r:id="rId2"/>
+    <sheet name="DeleteUser" sheetId="9" r:id="rId3"/>
+    <sheet name="EditUser" sheetId="10" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId5"/>
+    <sheet name="ViewUser" sheetId="12" r:id="rId6"/>
+    <sheet name="RolesPage" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId8"/>
+    <sheet name="UserPage" sheetId="5" r:id="rId9"/>
+    <sheet name="AddUser" sheetId="6" r:id="rId10"/>
+    <sheet name="ResetEmail" sheetId="4" r:id="rId11"/>
+    <sheet name="Homepage" sheetId="3" r:id="rId12"/>
+    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -84,16 +91,70 @@
     <t>UserName</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>juno</t>
+  </si>
+  <si>
+    <t>luke</t>
+  </si>
+  <si>
+    <t>luke123@gmail.com</t>
+  </si>
+  <si>
+    <t>lukejohn15</t>
+  </si>
+  <si>
+    <t>1234luke</t>
+  </si>
+  <si>
+    <t>Add user - Qalegend</t>
+  </si>
+  <si>
+    <t>Add user - QAlegend</t>
+  </si>
+  <si>
+    <t>Edit user - QAlegend</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>johnm</t>
+  </si>
+  <si>
+    <t>jubyjose10@gmail.com</t>
+  </si>
+  <si>
+    <t>jubyjose10</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>InvalidUser</t>
+  </si>
+  <si>
+    <t>mngh</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
     <t>junojose</t>
   </si>
   <si>
-    <t>junojose91@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>juno</t>
+    <t>jubyjohn10</t>
+  </si>
+  <si>
+    <t>Roles - Qalegend</t>
   </si>
 </sst>
 </file>
@@ -461,57 +522,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,115 +693,6 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2">
-        <v>123456</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -640,7 +702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -689,4 +751,261 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>